--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="75" windowWidth="19215" windowHeight="5865"/>
+    <workbookView xWindow="-15" yWindow="75" windowWidth="19215" windowHeight="5865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="357" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
@@ -276,34 +276,6 @@
   </si>
   <si>
     <t>スキーマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>client_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t_image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>idx_image_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>access_key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>idex_user_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t_user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1735,7 +1707,7 @@
   </sheetPr>
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
@@ -2280,7 +2252,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>21</v>
@@ -2289,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>1</v>
@@ -2516,10 +2488,10 @@
   </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="15.95" customHeight="1"/>
@@ -2542,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>25</v>
@@ -2587,19 +2559,11 @@
     </row>
     <row r="3" spans="1:18" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="41"/>
-      <c r="B3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>47</v>
-      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="52"/>
-      <c r="E3" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2635,19 +2599,11 @@
     </row>
     <row r="5" spans="1:18" s="8" customFormat="1" ht="15.95" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>47</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="52"/>
-      <c r="E5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>49</v>
-      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
